--- a/CFF.xlsx
+++ b/CFF.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A20" sqref="A1:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CFF.xlsx
+++ b/CFF.xlsx
@@ -24,63 +24,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>REVENUS</t>
   </si>
   <si>
-    <t>Salaire</t>
-  </si>
-  <si>
-    <t>Vente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autres </t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Loyer </t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telephone </t>
-  </si>
-  <si>
-    <t>Shopping</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transports </t>
-  </si>
-  <si>
-    <t>Netflix</t>
-  </si>
-  <si>
-    <t>Divers Amazon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salle de sport </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divers </t>
-  </si>
-  <si>
-    <t>Autres</t>
-  </si>
-  <si>
     <t xml:space="preserve">DEPENSES </t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Electricte</t>
+    <t>Salaire (€)</t>
+  </si>
+  <si>
+    <t>Vente (€)</t>
+  </si>
+  <si>
+    <t>Autres (€)</t>
+  </si>
+  <si>
+    <t>Loyer (€)</t>
+  </si>
+  <si>
+    <t>Restaurant (€)</t>
+  </si>
+  <si>
+    <t>Telephone (€)</t>
+  </si>
+  <si>
+    <t>Shopping (€)</t>
+  </si>
+  <si>
+    <t>Coffee (€)</t>
+  </si>
+  <si>
+    <t>Transports (€)</t>
+  </si>
+  <si>
+    <t>Electricte (€)</t>
+  </si>
+  <si>
+    <t>Netflix (€)</t>
+  </si>
+  <si>
+    <t>Divers Amazon (€)</t>
+  </si>
+  <si>
+    <t>Salle de sport (€)</t>
+  </si>
+  <si>
+    <t>Divers (€)</t>
   </si>
 </sst>
 </file>
@@ -522,7 +519,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A1:A20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,7 +532,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B1" s="11">
         <v>45505</v>
@@ -648,100 +645,100 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>3500</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>3500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <v>3500</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
         <v>3500</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>3500</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1">
         <v>3500</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -765,7 +762,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9">
         <v>1200</v>
@@ -810,7 +807,7 @@
     </row>
     <row r="10" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="9">
         <v>60</v>
@@ -875,7 +872,7 @@
     </row>
     <row r="11" spans="1:27" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9">
@@ -918,7 +915,7 @@
     </row>
     <row r="12" spans="1:27" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9">
         <v>210</v>
@@ -1001,7 +998,7 @@
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9">
         <v>5</v>
@@ -1058,7 +1055,7 @@
     </row>
     <row r="14" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9">
@@ -1125,7 +1122,7 @@
     </row>
     <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1168,7 +1165,7 @@
     </row>
     <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9">
         <v>15.99</v>
@@ -1213,7 +1210,7 @@
     </row>
     <row r="17" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
@@ -1254,7 +1251,7 @@
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1297,7 +1294,7 @@
     </row>
     <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1342,7 +1339,7 @@
     </row>
     <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>

--- a/CFF.xlsx
+++ b/CFF.xlsx
@@ -24,60 +24,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>REVENUS</t>
   </si>
   <si>
+    <t>Salaire</t>
+  </si>
+  <si>
+    <t>Vente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autres </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">Loyer </t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone </t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transports </t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Divers Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salle de sport </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divers </t>
+  </si>
+  <si>
+    <t>Autres</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEPENSES </t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Salaire (€)</t>
-  </si>
-  <si>
-    <t>Vente (€)</t>
-  </si>
-  <si>
-    <t>Autres (€)</t>
-  </si>
-  <si>
-    <t>Loyer (€)</t>
-  </si>
-  <si>
-    <t>Restaurant (€)</t>
-  </si>
-  <si>
-    <t>Telephone (€)</t>
-  </si>
-  <si>
-    <t>Shopping (€)</t>
-  </si>
-  <si>
-    <t>Coffee (€)</t>
-  </si>
-  <si>
-    <t>Transports (€)</t>
-  </si>
-  <si>
-    <t>Electricte (€)</t>
-  </si>
-  <si>
-    <t>Netflix (€)</t>
-  </si>
-  <si>
-    <t>Divers Amazon (€)</t>
-  </si>
-  <si>
-    <t>Salle de sport (€)</t>
-  </si>
-  <si>
-    <t>Divers (€)</t>
+    <t>Electricte</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A20" sqref="A1:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11">
         <v>45505</v>
@@ -645,100 +648,100 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>3500</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1">
         <v>3500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1">
         <v>3500</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N3" s="1">
         <v>3500</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R3" s="1">
         <v>3500</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V3" s="1">
         <v>3500</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -762,7 +765,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="9">
         <v>1200</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="10" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="9">
         <v>60</v>
@@ -872,7 +875,7 @@
     </row>
     <row r="11" spans="1:27" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9">
@@ -915,7 +918,7 @@
     </row>
     <row r="12" spans="1:27" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="9">
         <v>210</v>
@@ -998,7 +1001,7 @@
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="9">
         <v>5</v>
@@ -1055,7 +1058,7 @@
     </row>
     <row r="14" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9">
@@ -1122,7 +1125,7 @@
     </row>
     <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="9">
         <v>15.99</v>
@@ -1210,7 +1213,7 @@
     </row>
     <row r="17" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
@@ -1251,7 +1254,7 @@
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1294,7 +1297,7 @@
     </row>
     <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1339,7 +1342,7 @@
     </row>
     <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
